--- a/extras/sample-form/EGRA grid sample form.xlsx
+++ b/extras/sample-form/EGRA grid sample form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO\EGRA\Sample Code\EGRA Plugin\source_using_vanilla_js\no fieldset test\extras\sample-form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO\EGRA\Sample Code\EGRA Plugin\source_using_vanilla_js\no fieldset test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7594F9-F3AA-41A5-A40B-0773BD2BCB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3699A58-D735-4440-B64C-29EC1A8D69B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2962,16 +2962,16 @@
     <t>item-at('|', plug-in-metadata(${nonwords}), 4)</t>
   </si>
   <si>
-    <t>custom-egra-grid(type='letters')</t>
-  </si>
-  <si>
-    <t>custom-egra-grid(type='words')</t>
-  </si>
-  <si>
     <t>EGRA Grid Sample Form</t>
   </si>
   <si>
     <t>egra_grid_sample</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='letters', duration='30')</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='words', duration='40')</t>
   </si>
 </sst>
 </file>
@@ -3682,6 +3682,495 @@
   </cellStyles>
   <dxfs count="165">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -3946,495 +4435,6 @@
           <color auto="1"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5353,9 +5353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D14:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5581,7 +5581,7 @@
         <v>381</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5679,7 +5679,7 @@
         <v>381</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5894,129 +5894,129 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 I20:I26 F20:F26">
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="32" stopIfTrue="1">
       <formula>$A20="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 O20:O26 I20:I26">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="29" stopIfTrue="1">
       <formula>$A20="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26 F20:F26">
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="26" stopIfTrue="1">
       <formula>$A20="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26 G20:H26">
-    <cfRule type="expression" dxfId="29" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="24" stopIfTrue="1">
       <formula>$A20="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26 G20:H26">
-    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="22" stopIfTrue="1">
       <formula>$A20="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="20" stopIfTrue="1">
       <formula>OR(AND(LEFT($A20, 16)="select_multiple ", LEN($A20)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A20, 17)))), AND(LEFT($A20, 11)="select_one ", LEN($A20)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A20, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F26 B20:B26">
-    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="17" stopIfTrue="1">
       <formula>OR($A20="audio audit", $A20="text audit", $A20="speed violations count", $A20="speed violations list", $A20="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="11" stopIfTrue="1">
       <formula>$A20="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="13" stopIfTrue="1">
       <formula>$A20="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="15" stopIfTrue="1">
       <formula>OR($A20="geopoint", $A20="geoshape", $A20="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B26 N20:N26">
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
       <formula>OR($A20="calculate", $A20="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="7" stopIfTrue="1">
       <formula>OR($A20="date", $A20="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="5" stopIfTrue="1">
       <formula>$A20="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="3" stopIfTrue="1">
       <formula>OR($A20="audio", $A20="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:W26">
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="2" stopIfTrue="1">
       <formula>$A20="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="4" stopIfTrue="1">
       <formula>OR($A20="audio", $A20="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="6" stopIfTrue="1">
       <formula>$A20="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="8" stopIfTrue="1">
       <formula>OR($A20="date", $A20="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="10" stopIfTrue="1">
       <formula>OR($A20="calculate", $A20="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
       <formula>$A20="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
       <formula>$A20="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="16" stopIfTrue="1">
       <formula>OR($A20="geopoint", $A20="geoshape", $A20="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="18" stopIfTrue="1">
       <formula>OR($A20="audio audit", $A20="text audit", $A20="speed violations count", $A20="speed violations list", $A20="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="19" stopIfTrue="1">
       <formula>OR($A20="username", $A20="phonenumber", $A20="start", $A20="end", $A20="deviceid", $A20="subscriberid", $A20="simserial", $A20="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="21" stopIfTrue="1">
       <formula>OR(AND(LEFT($A20, 16)="select_multiple ", LEN($A20)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A20, 17)))), AND(LEFT($A20, 11)="select_one ", LEN($A20)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A20, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="23" stopIfTrue="1">
       <formula>$A20="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="25" stopIfTrue="1">
       <formula>$A20="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="27" stopIfTrue="1">
       <formula>$A20="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="28" stopIfTrue="1">
       <formula>$A20="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="30" stopIfTrue="1">
       <formula>$A20="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="31" stopIfTrue="1">
       <formula>$A20="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="33" stopIfTrue="1">
       <formula>$A20="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B26">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
       <formula>$A20="comments"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7740,7 +7740,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:H2000">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7754,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15.6"/>
@@ -7791,14 +7791,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2006232054</v>
+        <v>2006261808</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -11438,348 +11438,348 @@
     <mergeCell ref="A78:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="131" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="130" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="129" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="128" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="127" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="126" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="125" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="124" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="121" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="120" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="119" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="118" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="117" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="99" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="98" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="80" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="79" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="78" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="77" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="74" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="73" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="72" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="71" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="70" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="69" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/extras/sample-form/EGRA grid sample form.xlsx
+++ b/extras/sample-form/EGRA grid sample form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO\EGRA\Sample Code\EGRA Plugin\source_using_vanilla_js\no fieldset test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\extras\sample-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3699A58-D735-4440-B64C-29EC1A8D69B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A33B3D-DDF5-4923-BB61-0AE660F0D484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2968,10 +2968,10 @@
     <t>egra_grid_sample</t>
   </si>
   <si>
-    <t>custom-egra-grid(type='letters', duration='30')</t>
-  </si>
-  <si>
-    <t>custom-egra-grid(type='words', duration='40')</t>
+    <t>custom-egra-test(type='letters', duration='30')</t>
+  </si>
+  <si>
+    <t>custom-egra-test(type='words', duration='40')</t>
   </si>
 </sst>
 </file>
@@ -5354,8 +5354,8 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D14:D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2006261808</v>
+        <v>2008061904</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
